--- a/biology/Zoologie/Conus_ariejoostei/Conus_ariejoostei.xlsx
+++ b/biology/Zoologie/Conus_ariejoostei/Conus_ariejoostei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus ariejoostei est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine d'escargot conique est endémique à l'Afrique du Sud et se trouve au large de la province de la côte Est.
 </t>
@@ -571,13 +587,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus ariejoostei a été décrite pour la première fois en 2016 par le malacologiste sud-africain Stephan G. Veldsman[1] dans la publication intitulée « Malacologia Mostra Mondiale »[2],[3].
-Synonymes
-Conus (Sciteconus) ariejoostei (S. G. Veldsman, 2016), appellation alternative
-Sciteconus ariejoostei S. G. Veldsman, 2016, non accepté (combinaison originale)
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus ariejoostei dans les principales bases sont les suivants :
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus ariejoostei a été décrite pour la première fois en 2016 par le malacologiste sud-africain Stephan G. Veldsman dans la publication intitulée « Malacologia Mostra Mondiale »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_ariejoostei</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_ariejoostei</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Sciteconus) ariejoostei (S. G. Veldsman, 2016), appellation alternative
+Sciteconus ariejoostei S. G. Veldsman, 2016, non accepté (combinaison originale)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_ariejoostei</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_ariejoostei</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus ariejoostei dans les principales bases sont les suivants :
 CoL : 5ZXLY
 </t>
         </is>
